--- a/data/Subset 1/Video Mosaic Grade 6 1 variable 6.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 1 variable 6.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -519,7 +519,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -565,7 +565,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -772,7 +772,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -795,7 +795,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -818,7 +818,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -841,7 +841,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -864,7 +864,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -887,7 +887,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -960,7 +960,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -983,7 +983,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1006,7 +1006,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1029,7 +1029,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1282,7 +1282,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1351,7 +1351,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1374,7 +1374,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1397,7 +1397,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1493,7 +1493,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1516,7 +1516,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1539,7 +1539,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1608,7 +1608,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1631,7 +1631,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1654,7 +1654,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1723,7 +1723,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1819,7 +1819,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1842,7 +1842,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1865,7 +1865,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1980,7 +1980,7 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2049,7 +2049,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2095,7 +2095,7 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2118,7 +2118,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2164,7 +2164,7 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2187,7 +2187,7 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2279,7 +2279,7 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2325,7 +2325,7 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2371,7 +2371,7 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2417,7 +2417,7 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2440,7 +2440,7 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2463,7 +2463,7 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2555,7 +2555,7 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2601,7 +2601,7 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2670,7 +2670,7 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2743,7 +2743,7 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2766,7 +2766,7 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -2789,7 +2789,7 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -2835,7 +2835,7 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -2858,7 +2858,7 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -2931,7 +2931,7 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -2977,7 +2977,7 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3000,7 +3000,7 @@
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3046,7 +3046,7 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3115,7 +3115,7 @@
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3138,7 +3138,7 @@
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3161,7 +3161,7 @@
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3184,7 +3184,7 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3230,7 +3230,7 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3253,7 +3253,7 @@
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3276,7 +3276,7 @@
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3368,7 +3368,7 @@
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3391,7 +3391,7 @@
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3414,7 +3414,7 @@
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3437,7 +3437,7 @@
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3460,7 +3460,7 @@
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3483,7 +3483,7 @@
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3506,7 +3506,7 @@
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3529,7 +3529,7 @@
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3552,7 +3552,7 @@
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3575,7 +3575,7 @@
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -3598,7 +3598,7 @@
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -3621,7 +3621,7 @@
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -3690,7 +3690,7 @@
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -3782,7 +3782,7 @@
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -3805,7 +3805,7 @@
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -3828,7 +3828,7 @@
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -3874,7 +3874,7 @@
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -3989,7 +3989,7 @@
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4012,7 +4012,7 @@
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4035,7 +4035,7 @@
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4081,7 +4081,7 @@
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4104,7 +4104,7 @@
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4150,7 +4150,7 @@
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4173,7 +4173,7 @@
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4242,7 +4242,7 @@
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4265,7 +4265,7 @@
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4288,7 +4288,7 @@
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4357,7 +4357,7 @@
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -4380,7 +4380,7 @@
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -4403,7 +4403,7 @@
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -4426,7 +4426,7 @@
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -4449,7 +4449,7 @@
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -4472,7 +4472,7 @@
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -4495,7 +4495,7 @@
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -4541,7 +4541,7 @@
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -4587,7 +4587,7 @@
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -4633,7 +4633,7 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -4725,7 +4725,7 @@
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -4817,7 +4817,7 @@
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -4840,7 +4840,7 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5093,7 +5093,7 @@
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -5116,7 +5116,7 @@
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -5139,7 +5139,7 @@
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -5231,7 +5231,7 @@
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -5254,7 +5254,7 @@
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -5300,7 +5300,7 @@
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -5392,7 +5392,7 @@
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -5415,7 +5415,7 @@
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
